--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_ex01_end.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_ex01_end.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Well known DJ D.D.D. is chatting with TA's agent back at the hotel. His enthusiasm for music is moving. At the end of the conversation, TA actually received a text message from Closure—"
+    <t xml:space="preserve">'Well known DJ D.D.D. is chatting with TA's agent back at the hotel. His enthusiasm for music is moving. At the end of the conversation, TA actually received a text message from Closure—'
 </t>
   </si>
   <si>
